--- a/db/import/contact_phones.xlsx
+++ b/db/import/contact_phones.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="320">
   <si>
     <t>account</t>
   </si>
@@ -31,16 +31,980 @@
   </si>
   <si>
     <t>val</t>
+  </si>
+  <si>
+    <t>office</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>fax</t>
+  </si>
+  <si>
+    <t>321-637-5331</t>
+  </si>
+  <si>
+    <t>863 422 5207</t>
+  </si>
+  <si>
+    <t>352-748-3324</t>
+  </si>
+  <si>
+    <t>770-909-8600</t>
+  </si>
+  <si>
+    <t>954-835-2228</t>
+  </si>
+  <si>
+    <t>239.334.4953</t>
+  </si>
+  <si>
+    <t>904.737.7730</t>
+  </si>
+  <si>
+    <t>863-581-6407</t>
+  </si>
+  <si>
+    <t>(530) 891-5061</t>
+  </si>
+  <si>
+    <t>772-429-4443</t>
+  </si>
+  <si>
+    <t>(772) 879-6510</t>
+  </si>
+  <si>
+    <t>(478)-272-9990</t>
+  </si>
+  <si>
+    <t>407.380.2324</t>
+  </si>
+  <si>
+    <t>808.826.6202</t>
+  </si>
+  <si>
+    <t>772-337-3116</t>
+  </si>
+  <si>
+    <t>813 634 3326</t>
+  </si>
+  <si>
+    <t>954-961-7200</t>
+  </si>
+  <si>
+    <t>(407)-870-0066</t>
+  </si>
+  <si>
+    <t>770/ 834-4681</t>
+  </si>
+  <si>
+    <t>239 707 6834</t>
+  </si>
+  <si>
+    <t>813-347-2887</t>
+  </si>
+  <si>
+    <t>813 635-2339</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 704-786-6800</t>
+  </si>
+  <si>
+    <t>(352) 840-0161</t>
+  </si>
+  <si>
+    <t>205-841-8601</t>
+  </si>
+  <si>
+    <t>813.777.7777</t>
+  </si>
+  <si>
+    <t>256.761.2130</t>
+  </si>
+  <si>
+    <t>912-384-7174</t>
+  </si>
+  <si>
+    <t>813 995 0841</t>
+  </si>
+  <si>
+    <t>321-633-6240</t>
+  </si>
+  <si>
+    <t>813-949-4777</t>
+  </si>
+  <si>
+    <t>(770) 695-3361</t>
+  </si>
+  <si>
+    <t>717 571 1571</t>
+  </si>
+  <si>
+    <t>407.656.1799</t>
+  </si>
+  <si>
+    <t>305.869.9196</t>
+  </si>
+  <si>
+    <t>407-447-4162</t>
+  </si>
+  <si>
+    <t>904-494-1204</t>
+  </si>
+  <si>
+    <t>(407) 464-7776 x206</t>
+  </si>
+  <si>
+    <t>407.656.9255</t>
+  </si>
+  <si>
+    <t>478-272-9990</t>
+  </si>
+  <si>
+    <t>352-303.9191</t>
+  </si>
+  <si>
+    <t>229-848-0129</t>
+  </si>
+  <si>
+    <t>352-267-8503</t>
+  </si>
+  <si>
+    <t>%28813%29%20714-6560</t>
+  </si>
+  <si>
+    <t>1-716-499-4805</t>
+  </si>
+  <si>
+    <t>407-908-8944</t>
+  </si>
+  <si>
+    <t>251-490-7602</t>
+  </si>
+  <si>
+    <t>239.415.3695</t>
+  </si>
+  <si>
+    <t>(602) 268-4983</t>
+  </si>
+  <si>
+    <t>352 597 9535</t>
+  </si>
+  <si>
+    <t>813.671.3700</t>
+  </si>
+  <si>
+    <t>954.571.2088</t>
+  </si>
+  <si>
+    <t>(904) 291-9330</t>
+  </si>
+  <si>
+    <t>407-467-1348</t>
+  </si>
+  <si>
+    <t>941-708-7485</t>
+  </si>
+  <si>
+    <t>561.793.2778</t>
+  </si>
+  <si>
+    <t>772.778.4878</t>
+  </si>
+  <si>
+    <t>863.674.5799</t>
+  </si>
+  <si>
+    <t>205-333-8500</t>
+  </si>
+  <si>
+    <t>630-209-2549</t>
+  </si>
+  <si>
+    <t>813-671-3700</t>
+  </si>
+  <si>
+    <t>407-894-3804</t>
+  </si>
+  <si>
+    <t>813.558.0990</t>
+  </si>
+  <si>
+    <t>352.787.5651</t>
+  </si>
+  <si>
+    <t>941-350-0095</t>
+  </si>
+  <si>
+    <t>478-862-5238</t>
+  </si>
+  <si>
+    <t>(205)916.2029</t>
+  </si>
+  <si>
+    <t>830.249.9026</t>
+  </si>
+  <si>
+    <t>561-261-0883</t>
+  </si>
+  <si>
+    <t>941.756.1871</t>
+  </si>
+  <si>
+    <t>770/ 909-8600</t>
+  </si>
+  <si>
+    <t>352.682.4550</t>
+  </si>
+  <si>
+    <t>770-725-4100</t>
+  </si>
+  <si>
+    <t>813 961 4332</t>
+  </si>
+  <si>
+    <t>813-781-9654</t>
+  </si>
+  <si>
+    <t>478-296-1471</t>
+  </si>
+  <si>
+    <t>(315) 788-3200</t>
+  </si>
+  <si>
+    <t>770-739-5600</t>
+  </si>
+  <si>
+    <t>(772) 388-5364</t>
+  </si>
+  <si>
+    <t>561.718.8219</t>
+  </si>
+  <si>
+    <t>404-696-1070</t>
+  </si>
+  <si>
+    <t>863 284 5727</t>
+  </si>
+  <si>
+    <t>305.592.5360</t>
+  </si>
+  <si>
+    <t>407-277-5247</t>
+  </si>
+  <si>
+    <t>205-365-9976</t>
+  </si>
+  <si>
+    <t>863.634.4944</t>
+  </si>
+  <si>
+    <t>941.722.7707</t>
+  </si>
+  <si>
+    <t>(813) 264-9500</t>
+  </si>
+  <si>
+    <t>561.842.7737</t>
+  </si>
+  <si>
+    <t>561-996-9894</t>
+  </si>
+  <si>
+    <t>847.293.9358</t>
+  </si>
+  <si>
+    <t>386.752.7585 ext 211</t>
+  </si>
+  <si>
+    <t>256-249-8410</t>
+  </si>
+  <si>
+    <t>941-751-0179</t>
+  </si>
+  <si>
+    <t>(256)-582-4385</t>
+  </si>
+  <si>
+    <t>784-8048 EXT.120</t>
+  </si>
+  <si>
+    <t>954-680-8005</t>
+  </si>
+  <si>
+    <t>419.425.6050</t>
+  </si>
+  <si>
+    <t>352-840-0161</t>
+  </si>
+  <si>
+    <t>863-983-8101</t>
+  </si>
+  <si>
+    <t>(941) 365-5500</t>
+  </si>
+  <si>
+    <t>678-725-1465</t>
+  </si>
+  <si>
+    <t>(561) 791-1953</t>
+  </si>
+  <si>
+    <t>1-407-299-1212</t>
+  </si>
+  <si>
+    <t>904.764.4568</t>
+  </si>
+  <si>
+    <t>404-516-4361</t>
+  </si>
+  <si>
+    <t>863.965.2861</t>
+  </si>
+  <si>
+    <t>407.331.3100</t>
+  </si>
+  <si>
+    <t>520-204-7326</t>
+  </si>
+  <si>
+    <t>843-397-2050</t>
+  </si>
+  <si>
+    <t>256.734.3729</t>
+  </si>
+  <si>
+    <t>386-397-8371</t>
+  </si>
+  <si>
+    <t>801.229.7538801.225.7970</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 704-786-6800 </t>
+  </si>
+  <si>
+    <t>727-543-3512</t>
+  </si>
+  <si>
+    <t>(443) 255-0784</t>
+  </si>
+  <si>
+    <t>239-287-0994</t>
+  </si>
+  <si>
+    <t>(863) 294-3355</t>
+  </si>
+  <si>
+    <t>941 922 1861</t>
+  </si>
+  <si>
+    <t>770/ 941-5100</t>
+  </si>
+  <si>
+    <t>904-334-0711</t>
+  </si>
+  <si>
+    <t>813-917-3377</t>
+  </si>
+  <si>
+    <t>(941)-744-0211</t>
+  </si>
+  <si>
+    <t>305-592-5360</t>
+  </si>
+  <si>
+    <t>352-266-3824</t>
+  </si>
+  <si>
+    <t>321.727.5402</t>
+  </si>
+  <si>
+    <t>1-800-241-3302</t>
+  </si>
+  <si>
+    <t>706/236-3518</t>
+  </si>
+  <si>
+    <t>954.943.9700</t>
+  </si>
+  <si>
+    <t>850-527-4154</t>
+  </si>
+  <si>
+    <t>352 796 0149</t>
+  </si>
+  <si>
+    <t>404/ 567-2172</t>
+  </si>
+  <si>
+    <t>321-288-0104</t>
+  </si>
+  <si>
+    <t>561.472.8600</t>
+  </si>
+  <si>
+    <t>904-814-0183</t>
+  </si>
+  <si>
+    <t>(863) 385-8834</t>
+  </si>
+  <si>
+    <t>305-670-7585</t>
+  </si>
+  <si>
+    <t>772-678-8978</t>
+  </si>
+  <si>
+    <t>352-748-0955</t>
+  </si>
+  <si>
+    <t>305-965-7224</t>
+  </si>
+  <si>
+    <t>352.236.1400</t>
+  </si>
+  <si>
+    <t>904.772.1313</t>
+  </si>
+  <si>
+    <t>770/ 988-3236</t>
+  </si>
+  <si>
+    <t>407-709-0163</t>
+  </si>
+  <si>
+    <t>248-3878</t>
+  </si>
+  <si>
+    <t>507.340.9300</t>
+  </si>
+  <si>
+    <t>352.267.8503</t>
+  </si>
+  <si>
+    <t>310.763.2749</t>
+  </si>
+  <si>
+    <t>256-533-0505</t>
+  </si>
+  <si>
+    <t>978.337.6661</t>
+  </si>
+  <si>
+    <t>478.278.7548</t>
+  </si>
+  <si>
+    <t>706/256-0118</t>
+  </si>
+  <si>
+    <t>336-813-3631</t>
+  </si>
+  <si>
+    <t>(334) 858-6666</t>
+  </si>
+  <si>
+    <t>770-560-8036</t>
+  </si>
+  <si>
+    <t>609.577.2597</t>
+  </si>
+  <si>
+    <t>727-584-3329</t>
+  </si>
+  <si>
+    <t>386.752.7585</t>
+  </si>
+  <si>
+    <t>706-245-4911</t>
+  </si>
+  <si>
+    <t>706-977-0237</t>
+  </si>
+  <si>
+    <t>770/ 819-5184</t>
+  </si>
+  <si>
+    <t>770.889.2819</t>
+  </si>
+  <si>
+    <t>305.259.9004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(941) 744-9295 </t>
+  </si>
+  <si>
+    <t>706/ 687-5526</t>
+  </si>
+  <si>
+    <t>561.791.1953</t>
+  </si>
+  <si>
+    <t>727-532-9932</t>
+  </si>
+  <si>
+    <t>386.446.6426</t>
+  </si>
+  <si>
+    <t>813-781-6731</t>
+  </si>
+  <si>
+    <t>407-548-2217</t>
+  </si>
+  <si>
+    <t>(586) 598-9700</t>
+  </si>
+  <si>
+    <t>561-996-6822</t>
+  </si>
+  <si>
+    <t>(205) 755-3878</t>
+  </si>
+  <si>
+    <t>800.837.8062</t>
+  </si>
+  <si>
+    <t>(941)920-4340</t>
+  </si>
+  <si>
+    <t>904-493-7013</t>
+  </si>
+  <si>
+    <t>904.353.0050</t>
+  </si>
+  <si>
+    <t>850.537.8815</t>
+  </si>
+  <si>
+    <t>850-491-1807</t>
+  </si>
+  <si>
+    <t>816.810.9914</t>
+  </si>
+  <si>
+    <t>(941)-721-7711</t>
+  </si>
+  <si>
+    <t>404.624.8764</t>
+  </si>
+  <si>
+    <t>813 996 3966</t>
+  </si>
+  <si>
+    <t>404.495.8700</t>
+  </si>
+  <si>
+    <t>772.879.6510</t>
+  </si>
+  <si>
+    <t>321.302.9650</t>
+  </si>
+  <si>
+    <t>813-623-3031</t>
+  </si>
+  <si>
+    <t>(321)363-7000</t>
+  </si>
+  <si>
+    <t>954-520-2749</t>
+  </si>
+  <si>
+    <t>434.245.5370</t>
+  </si>
+  <si>
+    <t>404-472-5221</t>
+  </si>
+  <si>
+    <t>(727) 797-8982</t>
+  </si>
+  <si>
+    <t>407-383-3931</t>
+  </si>
+  <si>
+    <t>208.726.7688</t>
+  </si>
+  <si>
+    <t>205.481.1246</t>
+  </si>
+  <si>
+    <t>917.733.3542</t>
+  </si>
+  <si>
+    <t>813-689-3601</t>
+  </si>
+  <si>
+    <t>386.208.2758</t>
+  </si>
+  <si>
+    <t>904.781.7304</t>
+  </si>
+  <si>
+    <t>772-203-0260</t>
+  </si>
+  <si>
+    <t>239.997.4004</t>
+  </si>
+  <si>
+    <t>352-622-8322</t>
+  </si>
+  <si>
+    <t>904.727.7483</t>
+  </si>
+  <si>
+    <t>386-597-4650</t>
+  </si>
+  <si>
+    <t>706/ 687-3344</t>
+  </si>
+  <si>
+    <t>772-283-2648</t>
+  </si>
+  <si>
+    <t>912-670-1243</t>
+  </si>
+  <si>
+    <t>(813) 707-9086</t>
+  </si>
+  <si>
+    <t>315-788-3200</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>850-393-4743</t>
+  </si>
+  <si>
+    <t>407.330.9466</t>
+  </si>
+  <si>
+    <t>(321)269-1209</t>
+  </si>
+  <si>
+    <t>334 288 2702</t>
+  </si>
+  <si>
+    <t>850.478.5250</t>
+  </si>
+  <si>
+    <t>321-783-4174</t>
+  </si>
+  <si>
+    <t>1-772-473-0095</t>
+  </si>
+  <si>
+    <t>352 279 7465</t>
+  </si>
+  <si>
+    <t>407-656-1799</t>
+  </si>
+  <si>
+    <t>850.575.5600</t>
+  </si>
+  <si>
+    <t>239 225 0565</t>
+  </si>
+  <si>
+    <t>863-662-1043</t>
+  </si>
+  <si>
+    <t>cell-(407)466-6264</t>
+  </si>
+  <si>
+    <t>561.333.7416</t>
+  </si>
+  <si>
+    <t>386-785-3382</t>
+  </si>
+  <si>
+    <t>1-973-879-0028</t>
+  </si>
+  <si>
+    <t>321.253.5556</t>
+  </si>
+  <si>
+    <t>772-216-4933</t>
+  </si>
+  <si>
+    <t>770.920.1728</t>
+  </si>
+  <si>
+    <t>561-747-8008</t>
+  </si>
+  <si>
+    <t>561.498.4533</t>
+  </si>
+  <si>
+    <t>(251) 626-3483</t>
+  </si>
+  <si>
+    <t>(772) 286-8083</t>
+  </si>
+  <si>
+    <t>809.560.IMCA (4622)</t>
+  </si>
+  <si>
+    <t>239-229-5846</t>
+  </si>
+  <si>
+    <t>386-677-2411</t>
+  </si>
+  <si>
+    <t>877.442.7878</t>
+  </si>
+  <si>
+    <t>(518) 669-3034</t>
+  </si>
+  <si>
+    <t>813 241 2586</t>
+  </si>
+  <si>
+    <t>770-616-5558</t>
+  </si>
+  <si>
+    <t>215.945.0845</t>
+  </si>
+  <si>
+    <t>787.408.6530</t>
+  </si>
+  <si>
+    <t>954.433.2800</t>
+  </si>
+  <si>
+    <t>305-591-5880</t>
+  </si>
+  <si>
+    <t>904-861-2443</t>
+  </si>
+  <si>
+    <t>561.996.7257</t>
+  </si>
+  <si>
+    <t>294-6337</t>
+  </si>
+  <si>
+    <t>239.479.5100</t>
+  </si>
+  <si>
+    <t>530.891.5061</t>
+  </si>
+  <si>
+    <t>904.964.1282</t>
+  </si>
+  <si>
+    <t>561.966.6675</t>
+  </si>
+  <si>
+    <t>352 563 1424</t>
+  </si>
+  <si>
+    <t>706-645-5794</t>
+  </si>
+  <si>
+    <t>443.255.0784</t>
+  </si>
+  <si>
+    <t>305-556-0551</t>
+  </si>
+  <si>
+    <t>239.549.0060</t>
+  </si>
+  <si>
+    <t>251-867-9972</t>
+  </si>
+  <si>
+    <t>251-342-3025</t>
+  </si>
+  <si>
+    <t>813-412-1660</t>
+  </si>
+  <si>
+    <t>305-395-3526</t>
+  </si>
+  <si>
+    <t>352 572 6894</t>
+  </si>
+  <si>
+    <t>843-303-5266</t>
+  </si>
+  <si>
+    <t>770-862-2023</t>
+  </si>
+  <si>
+    <t>1-772-473-8463</t>
+  </si>
+  <si>
+    <t>561-996-2991</t>
+  </si>
+  <si>
+    <t>813-917-0779</t>
+  </si>
+  <si>
+    <t>(727) 375-1101</t>
+  </si>
+  <si>
+    <t>941.722.4913</t>
+  </si>
+  <si>
+    <t>813-926-1622</t>
+  </si>
+  <si>
+    <t>386-785-0046</t>
+  </si>
+  <si>
+    <t>561-722-1988</t>
+  </si>
+  <si>
+    <t>904.264.4221</t>
+  </si>
+  <si>
+    <t>561-996-9972</t>
+  </si>
+  <si>
+    <t>229-245-0838</t>
+  </si>
+  <si>
+    <t>229-242-5318</t>
+  </si>
+  <si>
+    <t>941-756-1871</t>
+  </si>
+  <si>
+    <t>407-656-3900</t>
+  </si>
+  <si>
+    <t>239 4322732</t>
+  </si>
+  <si>
+    <t>912/ 964-6513</t>
+  </si>
+  <si>
+    <t>478.225.9475</t>
+  </si>
+  <si>
+    <t>352-754-4067</t>
+  </si>
+  <si>
+    <t>1-239-246-6867</t>
+  </si>
+  <si>
+    <t>(281) 955-2442</t>
+  </si>
+  <si>
+    <t>229-365-7493</t>
+  </si>
+  <si>
+    <t>(863) 412-1660</t>
+  </si>
+  <si>
+    <t>352-551-4186</t>
+  </si>
+  <si>
+    <t>(863)-686-2263</t>
+  </si>
+  <si>
+    <t>520-577-0533</t>
+  </si>
+  <si>
+    <t>(813) 988-8100</t>
+  </si>
+  <si>
+    <t>352-861-7799</t>
+  </si>
+  <si>
+    <t>(813) 397-3798</t>
+  </si>
+  <si>
+    <t>850-769-3477</t>
+  </si>
+  <si>
+    <t>850-769-6640</t>
+  </si>
+  <si>
+    <t>904-346-1733</t>
+  </si>
+  <si>
+    <t>850-623-0009</t>
+  </si>
+  <si>
+    <t>727612 0125</t>
+  </si>
+  <si>
+    <t>786.347.5094</t>
+  </si>
+  <si>
+    <t>803.957.9842</t>
+  </si>
+  <si>
+    <t>321.254.9569</t>
+  </si>
+  <si>
+    <t>561.588.2027</t>
+  </si>
+  <si>
+    <t>(321) 951-2947</t>
+  </si>
+  <si>
+    <t>239-566-1661</t>
+  </si>
+  <si>
+    <t>407.349.5095</t>
+  </si>
+  <si>
+    <t>813-478-2521</t>
+  </si>
+  <si>
+    <t>334/ 265-3185</t>
+  </si>
+  <si>
+    <t>(843) 681-4488</t>
+  </si>
+  <si>
+    <t>321-861-4307</t>
+  </si>
+  <si>
+    <t>863.465.0404</t>
+  </si>
+  <si>
+    <t>770-448-6008</t>
+  </si>
+  <si>
+    <t>561-848-6618</t>
+  </si>
+  <si>
+    <t>813.675.0110</t>
+  </si>
+  <si>
+    <t>(512) 748-4451</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +1027,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -399,13 +1367,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D460"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E456" sqref="E456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -425,39 +1396,6431 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
         <v>1</v>
       </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
         <v>1</v>
       </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
         <v>1</v>
       </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
         <v>1</v>
       </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>7709341839</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>4047662293</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>7065177700</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72">
+        <v>8139965882</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>105</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>106</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108">
+        <v>107</v>
+      </c>
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109">
+        <v>108</v>
+      </c>
+      <c r="C109" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <v>109</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111">
+        <v>110</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112">
+        <v>111</v>
+      </c>
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113">
+        <v>112</v>
+      </c>
+      <c r="C113" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114">
+        <v>113</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115">
+        <v>114</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116">
+        <v>115</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117">
+        <v>116</v>
+      </c>
+      <c r="C117" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118">
+        <v>117</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119">
+        <v>118</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>119</v>
+      </c>
+      <c r="C120" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121">
+        <v>120</v>
+      </c>
+      <c r="C121" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <v>121</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123">
+        <v>122</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124">
+        <v>123</v>
+      </c>
+      <c r="C124" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <v>124</v>
+      </c>
+      <c r="C125" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126">
+        <v>125</v>
+      </c>
+      <c r="C126" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127">
+        <v>126</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128">
+        <v>127</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129">
+        <v>128</v>
+      </c>
+      <c r="C129" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130">
+        <v>129</v>
+      </c>
+      <c r="C130" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>130</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="B132">
+        <v>131</v>
+      </c>
+      <c r="C132" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133">
+        <v>132</v>
+      </c>
+      <c r="C133" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134">
+        <v>133</v>
+      </c>
+      <c r="C134" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135">
+        <v>134</v>
+      </c>
+      <c r="C135" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="B136">
+        <v>135</v>
+      </c>
+      <c r="C136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137">
+        <v>136</v>
+      </c>
+      <c r="C137" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138">
+        <v>137</v>
+      </c>
+      <c r="C138" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="B139">
+        <v>138</v>
+      </c>
+      <c r="C139" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140">
+        <v>139</v>
+      </c>
+      <c r="C140" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141">
+        <v>140</v>
+      </c>
+      <c r="C141" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142">
+        <v>141</v>
+      </c>
+      <c r="C142" t="s">
+        <v>4</v>
+      </c>
+      <c r="D142" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143">
+        <v>142</v>
+      </c>
+      <c r="C143" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144">
+        <v>143</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="B145">
+        <v>144</v>
+      </c>
+      <c r="C145" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146">
+        <v>145</v>
+      </c>
+      <c r="C146" t="s">
+        <v>4</v>
+      </c>
+      <c r="D146" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147">
+        <v>146</v>
+      </c>
+      <c r="C147" t="s">
+        <v>5</v>
+      </c>
+      <c r="D147" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
+        <v>1</v>
+      </c>
+      <c r="B148">
+        <v>147</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149">
+        <v>1</v>
+      </c>
+      <c r="B149">
+        <v>148</v>
+      </c>
+      <c r="C149" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150">
+        <v>149</v>
+      </c>
+      <c r="C150" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="B151">
+        <v>150</v>
+      </c>
+      <c r="C151" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="B152">
+        <v>151</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="B153">
+        <v>152</v>
+      </c>
+      <c r="C153" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="B154">
+        <v>153</v>
+      </c>
+      <c r="C154" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="B155">
+        <v>154</v>
+      </c>
+      <c r="C155" t="s">
+        <v>5</v>
+      </c>
+      <c r="D155" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="B156">
+        <v>155</v>
+      </c>
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157">
+        <v>1</v>
+      </c>
+      <c r="B157">
+        <v>156</v>
+      </c>
+      <c r="C157" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158">
+        <v>1</v>
+      </c>
+      <c r="B158">
+        <v>157</v>
+      </c>
+      <c r="C158" t="s">
+        <v>4</v>
+      </c>
+      <c r="D158" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159">
+        <v>158</v>
+      </c>
+      <c r="C159" t="s">
+        <v>5</v>
+      </c>
+      <c r="D159" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="B160">
+        <v>159</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160">
+        <v>8135149234</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="B161">
+        <v>160</v>
+      </c>
+      <c r="C161" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162">
+        <v>161</v>
+      </c>
+      <c r="C162" t="s">
+        <v>4</v>
+      </c>
+      <c r="D162" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163">
+        <v>1</v>
+      </c>
+      <c r="B163">
+        <v>162</v>
+      </c>
+      <c r="C163" t="s">
+        <v>5</v>
+      </c>
+      <c r="D163" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="B164">
+        <v>163</v>
+      </c>
+      <c r="C164" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="B165">
+        <v>164</v>
+      </c>
+      <c r="C165" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166">
+        <v>165</v>
+      </c>
+      <c r="C166" t="s">
+        <v>4</v>
+      </c>
+      <c r="D166" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="B167">
+        <v>166</v>
+      </c>
+      <c r="C167" t="s">
+        <v>5</v>
+      </c>
+      <c r="D167" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="B168">
+        <v>167</v>
+      </c>
+      <c r="C168" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169">
+        <v>168</v>
+      </c>
+      <c r="C169" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="B170">
+        <v>169</v>
+      </c>
+      <c r="C170" t="s">
+        <v>4</v>
+      </c>
+      <c r="D170" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="B171">
+        <v>170</v>
+      </c>
+      <c r="C171" t="s">
+        <v>5</v>
+      </c>
+      <c r="D171" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172">
+        <v>1</v>
+      </c>
+      <c r="B172">
+        <v>171</v>
+      </c>
+      <c r="C172" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173">
+        <v>172</v>
+      </c>
+      <c r="C173" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="B174">
+        <v>173</v>
+      </c>
+      <c r="C174" t="s">
+        <v>4</v>
+      </c>
+      <c r="D174" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175">
+        <v>1</v>
+      </c>
+      <c r="B175">
+        <v>174</v>
+      </c>
+      <c r="C175" t="s">
+        <v>5</v>
+      </c>
+      <c r="D175" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176">
+        <v>1</v>
+      </c>
+      <c r="B176">
+        <v>175</v>
+      </c>
+      <c r="C176" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="B177">
+        <v>176</v>
+      </c>
+      <c r="C177" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178">
+        <v>1</v>
+      </c>
+      <c r="B178">
+        <v>177</v>
+      </c>
+      <c r="C178" t="s">
+        <v>4</v>
+      </c>
+      <c r="D178" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179">
+        <v>1</v>
+      </c>
+      <c r="B179">
+        <v>178</v>
+      </c>
+      <c r="C179" t="s">
+        <v>5</v>
+      </c>
+      <c r="D179" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180">
+        <v>1</v>
+      </c>
+      <c r="B180">
+        <v>179</v>
+      </c>
+      <c r="C180" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="B181">
+        <v>180</v>
+      </c>
+      <c r="C181" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182">
+        <v>1</v>
+      </c>
+      <c r="B182">
+        <v>181</v>
+      </c>
+      <c r="C182" t="s">
+        <v>4</v>
+      </c>
+      <c r="D182" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183">
+        <v>1</v>
+      </c>
+      <c r="B183">
+        <v>182</v>
+      </c>
+      <c r="C183" t="s">
+        <v>5</v>
+      </c>
+      <c r="D183" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184">
+        <v>1</v>
+      </c>
+      <c r="B184">
+        <v>183</v>
+      </c>
+      <c r="C184" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185">
+        <v>1</v>
+      </c>
+      <c r="B185">
+        <v>184</v>
+      </c>
+      <c r="C185" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="B186">
+        <v>185</v>
+      </c>
+      <c r="C186" t="s">
+        <v>4</v>
+      </c>
+      <c r="D186" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187">
+        <v>1</v>
+      </c>
+      <c r="B187">
+        <v>186</v>
+      </c>
+      <c r="C187" t="s">
+        <v>5</v>
+      </c>
+      <c r="D187" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188">
+        <v>1</v>
+      </c>
+      <c r="B188">
+        <v>187</v>
+      </c>
+      <c r="C188" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188">
+        <v>6784149575</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189">
+        <v>1</v>
+      </c>
+      <c r="B189">
+        <v>188</v>
+      </c>
+      <c r="C189" t="s">
+        <v>7</v>
+      </c>
+      <c r="D189" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="B190">
+        <v>189</v>
+      </c>
+      <c r="C190" t="s">
+        <v>4</v>
+      </c>
+      <c r="D190" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191">
+        <v>1</v>
+      </c>
+      <c r="B191">
+        <v>190</v>
+      </c>
+      <c r="C191" t="s">
+        <v>5</v>
+      </c>
+      <c r="D191" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192">
+        <v>1</v>
+      </c>
+      <c r="B192">
+        <v>191</v>
+      </c>
+      <c r="C192" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193">
+        <v>1</v>
+      </c>
+      <c r="B193">
+        <v>192</v>
+      </c>
+      <c r="C193" t="s">
+        <v>7</v>
+      </c>
+      <c r="D193" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194">
+        <v>1</v>
+      </c>
+      <c r="B194">
+        <v>193</v>
+      </c>
+      <c r="C194" t="s">
+        <v>4</v>
+      </c>
+      <c r="D194" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195">
+        <v>1</v>
+      </c>
+      <c r="B195">
+        <v>194</v>
+      </c>
+      <c r="C195" t="s">
+        <v>5</v>
+      </c>
+      <c r="D195" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196">
+        <v>1</v>
+      </c>
+      <c r="B196">
+        <v>195</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197">
+        <v>1</v>
+      </c>
+      <c r="B197">
+        <v>196</v>
+      </c>
+      <c r="C197" t="s">
+        <v>7</v>
+      </c>
+      <c r="D197" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198">
+        <v>1</v>
+      </c>
+      <c r="B198">
+        <v>197</v>
+      </c>
+      <c r="C198" t="s">
+        <v>4</v>
+      </c>
+      <c r="D198" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199">
+        <v>1</v>
+      </c>
+      <c r="B199">
+        <v>198</v>
+      </c>
+      <c r="C199" t="s">
+        <v>5</v>
+      </c>
+      <c r="D199" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200">
+        <v>1</v>
+      </c>
+      <c r="B200">
+        <v>199</v>
+      </c>
+      <c r="C200" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201">
+        <v>1</v>
+      </c>
+      <c r="B201">
+        <v>200</v>
+      </c>
+      <c r="C201" t="s">
+        <v>7</v>
+      </c>
+      <c r="D201" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202">
+        <v>1</v>
+      </c>
+      <c r="B202">
+        <v>201</v>
+      </c>
+      <c r="C202" t="s">
+        <v>4</v>
+      </c>
+      <c r="D202" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203">
+        <v>1</v>
+      </c>
+      <c r="B203">
+        <v>202</v>
+      </c>
+      <c r="C203" t="s">
+        <v>5</v>
+      </c>
+      <c r="D203" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204">
+        <v>1</v>
+      </c>
+      <c r="B204">
+        <v>203</v>
+      </c>
+      <c r="C204" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205">
+        <v>1</v>
+      </c>
+      <c r="B205">
+        <v>204</v>
+      </c>
+      <c r="C205" t="s">
+        <v>7</v>
+      </c>
+      <c r="D205" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206">
+        <v>1</v>
+      </c>
+      <c r="B206">
+        <v>205</v>
+      </c>
+      <c r="C206" t="s">
+        <v>4</v>
+      </c>
+      <c r="D206" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207">
+        <v>1</v>
+      </c>
+      <c r="B207">
+        <v>206</v>
+      </c>
+      <c r="C207" t="s">
+        <v>5</v>
+      </c>
+      <c r="D207" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208">
+        <v>1</v>
+      </c>
+      <c r="B208">
+        <v>207</v>
+      </c>
+      <c r="C208" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209">
+        <v>1</v>
+      </c>
+      <c r="B209">
+        <v>208</v>
+      </c>
+      <c r="C209" t="s">
+        <v>7</v>
+      </c>
+      <c r="D209">
+        <v>8135149234</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210">
+        <v>1</v>
+      </c>
+      <c r="B210">
+        <v>209</v>
+      </c>
+      <c r="C210" t="s">
+        <v>4</v>
+      </c>
+      <c r="D210" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211">
+        <v>1</v>
+      </c>
+      <c r="B211">
+        <v>210</v>
+      </c>
+      <c r="C211" t="s">
+        <v>5</v>
+      </c>
+      <c r="D211" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="B212">
+        <v>211</v>
+      </c>
+      <c r="C212" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213">
+        <v>1</v>
+      </c>
+      <c r="B213">
+        <v>212</v>
+      </c>
+      <c r="C213" t="s">
+        <v>7</v>
+      </c>
+      <c r="D213" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214">
+        <v>1</v>
+      </c>
+      <c r="B214">
+        <v>213</v>
+      </c>
+      <c r="C214" t="s">
+        <v>4</v>
+      </c>
+      <c r="D214" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215">
+        <v>1</v>
+      </c>
+      <c r="B215">
+        <v>214</v>
+      </c>
+      <c r="C215" t="s">
+        <v>5</v>
+      </c>
+      <c r="D215" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216">
+        <v>1</v>
+      </c>
+      <c r="B216">
+        <v>215</v>
+      </c>
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217">
+        <v>1</v>
+      </c>
+      <c r="B217">
+        <v>216</v>
+      </c>
+      <c r="C217" t="s">
+        <v>7</v>
+      </c>
+      <c r="D217" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218">
+        <v>1</v>
+      </c>
+      <c r="B218">
+        <v>217</v>
+      </c>
+      <c r="C218" t="s">
+        <v>4</v>
+      </c>
+      <c r="D218" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219">
+        <v>1</v>
+      </c>
+      <c r="B219">
+        <v>218</v>
+      </c>
+      <c r="C219" t="s">
+        <v>5</v>
+      </c>
+      <c r="D219" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220">
+        <v>1</v>
+      </c>
+      <c r="B220">
+        <v>219</v>
+      </c>
+      <c r="C220" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221">
+        <v>1</v>
+      </c>
+      <c r="B221">
+        <v>220</v>
+      </c>
+      <c r="C221" t="s">
+        <v>7</v>
+      </c>
+      <c r="D221" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222">
+        <v>1</v>
+      </c>
+      <c r="B222">
+        <v>221</v>
+      </c>
+      <c r="C222" t="s">
+        <v>4</v>
+      </c>
+      <c r="D222" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223">
+        <v>1</v>
+      </c>
+      <c r="B223">
+        <v>222</v>
+      </c>
+      <c r="C223" t="s">
+        <v>5</v>
+      </c>
+      <c r="D223" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224">
+        <v>1</v>
+      </c>
+      <c r="B224">
+        <v>223</v>
+      </c>
+      <c r="C224" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225">
+        <v>1</v>
+      </c>
+      <c r="B225">
+        <v>224</v>
+      </c>
+      <c r="C225" t="s">
+        <v>7</v>
+      </c>
+      <c r="D225" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226">
+        <v>1</v>
+      </c>
+      <c r="B226">
+        <v>225</v>
+      </c>
+      <c r="C226" t="s">
+        <v>4</v>
+      </c>
+      <c r="D226" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227">
+        <v>1</v>
+      </c>
+      <c r="B227">
+        <v>226</v>
+      </c>
+      <c r="C227" t="s">
+        <v>5</v>
+      </c>
+      <c r="D227" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228">
+        <v>1</v>
+      </c>
+      <c r="B228">
+        <v>227</v>
+      </c>
+      <c r="C228" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229">
+        <v>1</v>
+      </c>
+      <c r="B229">
+        <v>228</v>
+      </c>
+      <c r="C229" t="s">
+        <v>7</v>
+      </c>
+      <c r="D229" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230">
+        <v>1</v>
+      </c>
+      <c r="B230">
+        <v>229</v>
+      </c>
+      <c r="C230" t="s">
+        <v>4</v>
+      </c>
+      <c r="D230" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231">
+        <v>1</v>
+      </c>
+      <c r="B231">
+        <v>230</v>
+      </c>
+      <c r="C231" t="s">
+        <v>5</v>
+      </c>
+      <c r="D231" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232">
+        <v>1</v>
+      </c>
+      <c r="B232">
+        <v>231</v>
+      </c>
+      <c r="C232" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233">
+        <v>1</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234">
+        <v>1</v>
+      </c>
+      <c r="B234">
+        <v>2</v>
+      </c>
+      <c r="C234" t="s">
+        <v>5</v>
+      </c>
+      <c r="D234" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235">
+        <v>1</v>
+      </c>
+      <c r="B235">
+        <v>3</v>
+      </c>
+      <c r="C235" t="s">
+        <v>7</v>
+      </c>
+      <c r="D235">
+        <v>8135149234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236">
+        <v>1</v>
+      </c>
+      <c r="B236">
+        <v>4</v>
+      </c>
+      <c r="C236" t="s">
+        <v>4</v>
+      </c>
+      <c r="D236" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237">
+        <v>1</v>
+      </c>
+      <c r="B237">
+        <v>5</v>
+      </c>
+      <c r="C237" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238">
+        <v>1</v>
+      </c>
+      <c r="B238">
+        <v>6</v>
+      </c>
+      <c r="C238" t="s">
+        <v>5</v>
+      </c>
+      <c r="D238" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239">
+        <v>1</v>
+      </c>
+      <c r="B239">
+        <v>7</v>
+      </c>
+      <c r="C239" t="s">
+        <v>7</v>
+      </c>
+      <c r="D239" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240">
+        <v>1</v>
+      </c>
+      <c r="B240">
+        <v>8</v>
+      </c>
+      <c r="C240" t="s">
+        <v>4</v>
+      </c>
+      <c r="D240" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241">
+        <v>1</v>
+      </c>
+      <c r="B241">
+        <v>9</v>
+      </c>
+      <c r="C241" t="s">
+        <v>6</v>
+      </c>
+      <c r="D241" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242">
+        <v>1</v>
+      </c>
+      <c r="B242">
+        <v>10</v>
+      </c>
+      <c r="C242" t="s">
+        <v>5</v>
+      </c>
+      <c r="D242" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243">
+        <v>1</v>
+      </c>
+      <c r="B243">
+        <v>11</v>
+      </c>
+      <c r="C243" t="s">
+        <v>7</v>
+      </c>
+      <c r="D243" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244">
+        <v>1</v>
+      </c>
+      <c r="B244">
+        <v>12</v>
+      </c>
+      <c r="C244" t="s">
+        <v>4</v>
+      </c>
+      <c r="D244" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245">
+        <v>1</v>
+      </c>
+      <c r="B245">
+        <v>13</v>
+      </c>
+      <c r="C245" t="s">
+        <v>6</v>
+      </c>
+      <c r="D245" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246">
+        <v>1</v>
+      </c>
+      <c r="B246">
+        <v>14</v>
+      </c>
+      <c r="C246" t="s">
+        <v>5</v>
+      </c>
+      <c r="D246" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247">
+        <v>1</v>
+      </c>
+      <c r="B247">
+        <v>15</v>
+      </c>
+      <c r="C247" t="s">
+        <v>7</v>
+      </c>
+      <c r="D247" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248">
+        <v>1</v>
+      </c>
+      <c r="B248">
+        <v>16</v>
+      </c>
+      <c r="C248" t="s">
+        <v>4</v>
+      </c>
+      <c r="D248" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249">
+        <v>1</v>
+      </c>
+      <c r="B249">
+        <v>17</v>
+      </c>
+      <c r="C249" t="s">
+        <v>6</v>
+      </c>
+      <c r="D249" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250">
+        <v>1</v>
+      </c>
+      <c r="B250">
+        <v>18</v>
+      </c>
+      <c r="C250" t="s">
+        <v>5</v>
+      </c>
+      <c r="D250" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251">
+        <v>1</v>
+      </c>
+      <c r="B251">
+        <v>19</v>
+      </c>
+      <c r="C251" t="s">
+        <v>7</v>
+      </c>
+      <c r="D251" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252">
+        <v>1</v>
+      </c>
+      <c r="B252">
+        <v>20</v>
+      </c>
+      <c r="C252" t="s">
+        <v>4</v>
+      </c>
+      <c r="D252" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253">
+        <v>1</v>
+      </c>
+      <c r="B253">
+        <v>21</v>
+      </c>
+      <c r="C253" t="s">
+        <v>6</v>
+      </c>
+      <c r="D253" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254">
+        <v>1</v>
+      </c>
+      <c r="B254">
+        <v>22</v>
+      </c>
+      <c r="C254" t="s">
+        <v>5</v>
+      </c>
+      <c r="D254" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255">
+        <v>1</v>
+      </c>
+      <c r="B255">
+        <v>23</v>
+      </c>
+      <c r="C255" t="s">
+        <v>7</v>
+      </c>
+      <c r="D255" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256">
+        <v>1</v>
+      </c>
+      <c r="B256">
+        <v>24</v>
+      </c>
+      <c r="C256" t="s">
+        <v>4</v>
+      </c>
+      <c r="D256" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257">
+        <v>1</v>
+      </c>
+      <c r="B257">
+        <v>25</v>
+      </c>
+      <c r="C257" t="s">
+        <v>6</v>
+      </c>
+      <c r="D257" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258">
+        <v>1</v>
+      </c>
+      <c r="B258">
+        <v>26</v>
+      </c>
+      <c r="C258" t="s">
+        <v>5</v>
+      </c>
+      <c r="D258" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259">
+        <v>1</v>
+      </c>
+      <c r="B259">
+        <v>27</v>
+      </c>
+      <c r="C259" t="s">
+        <v>7</v>
+      </c>
+      <c r="D259" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260">
+        <v>1</v>
+      </c>
+      <c r="B260">
+        <v>28</v>
+      </c>
+      <c r="C260" t="s">
+        <v>4</v>
+      </c>
+      <c r="D260" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261">
+        <v>1</v>
+      </c>
+      <c r="B261">
+        <v>29</v>
+      </c>
+      <c r="C261" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262">
+        <v>1</v>
+      </c>
+      <c r="B262">
+        <v>30</v>
+      </c>
+      <c r="C262" t="s">
+        <v>5</v>
+      </c>
+      <c r="D262" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263">
+        <v>1</v>
+      </c>
+      <c r="B263">
+        <v>31</v>
+      </c>
+      <c r="C263" t="s">
+        <v>7</v>
+      </c>
+      <c r="D263" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264">
+        <v>1</v>
+      </c>
+      <c r="B264">
+        <v>32</v>
+      </c>
+      <c r="C264" t="s">
+        <v>4</v>
+      </c>
+      <c r="D264" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265">
+        <v>1</v>
+      </c>
+      <c r="B265">
+        <v>33</v>
+      </c>
+      <c r="C265" t="s">
+        <v>6</v>
+      </c>
+      <c r="D265" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266">
+        <v>1</v>
+      </c>
+      <c r="B266">
+        <v>34</v>
+      </c>
+      <c r="C266" t="s">
+        <v>5</v>
+      </c>
+      <c r="D266" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267">
+        <v>1</v>
+      </c>
+      <c r="B267">
+        <v>35</v>
+      </c>
+      <c r="C267" t="s">
+        <v>7</v>
+      </c>
+      <c r="D267" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268">
+        <v>1</v>
+      </c>
+      <c r="B268">
+        <v>36</v>
+      </c>
+      <c r="C268" t="s">
+        <v>4</v>
+      </c>
+      <c r="D268" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269">
+        <v>1</v>
+      </c>
+      <c r="B269">
+        <v>37</v>
+      </c>
+      <c r="C269" t="s">
+        <v>6</v>
+      </c>
+      <c r="D269" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270">
+        <v>1</v>
+      </c>
+      <c r="B270">
+        <v>38</v>
+      </c>
+      <c r="C270" t="s">
+        <v>5</v>
+      </c>
+      <c r="D270" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271">
+        <v>1</v>
+      </c>
+      <c r="B271">
+        <v>39</v>
+      </c>
+      <c r="C271" t="s">
+        <v>7</v>
+      </c>
+      <c r="D271" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272">
+        <v>1</v>
+      </c>
+      <c r="B272">
+        <v>40</v>
+      </c>
+      <c r="C272" t="s">
+        <v>4</v>
+      </c>
+      <c r="D272" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273">
+        <v>1</v>
+      </c>
+      <c r="B273">
+        <v>41</v>
+      </c>
+      <c r="C273" t="s">
+        <v>6</v>
+      </c>
+      <c r="D273" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274">
+        <v>1</v>
+      </c>
+      <c r="B274">
+        <v>42</v>
+      </c>
+      <c r="C274" t="s">
+        <v>5</v>
+      </c>
+      <c r="D274" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275">
+        <v>1</v>
+      </c>
+      <c r="B275">
+        <v>43</v>
+      </c>
+      <c r="C275" t="s">
+        <v>7</v>
+      </c>
+      <c r="D275" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276">
+        <v>1</v>
+      </c>
+      <c r="B276">
+        <v>44</v>
+      </c>
+      <c r="C276" t="s">
+        <v>4</v>
+      </c>
+      <c r="D276" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277">
+        <v>1</v>
+      </c>
+      <c r="B277">
+        <v>45</v>
+      </c>
+      <c r="C277" t="s">
+        <v>6</v>
+      </c>
+      <c r="D277" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278">
+        <v>1</v>
+      </c>
+      <c r="B278">
+        <v>46</v>
+      </c>
+      <c r="C278" t="s">
+        <v>5</v>
+      </c>
+      <c r="D278" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279">
+        <v>1</v>
+      </c>
+      <c r="B279">
+        <v>47</v>
+      </c>
+      <c r="C279" t="s">
+        <v>7</v>
+      </c>
+      <c r="D279" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280">
+        <v>1</v>
+      </c>
+      <c r="B280">
+        <v>48</v>
+      </c>
+      <c r="C280" t="s">
+        <v>4</v>
+      </c>
+      <c r="D280" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281">
+        <v>1</v>
+      </c>
+      <c r="B281">
+        <v>49</v>
+      </c>
+      <c r="C281" t="s">
+        <v>6</v>
+      </c>
+      <c r="D281" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282">
+        <v>1</v>
+      </c>
+      <c r="B282">
+        <v>50</v>
+      </c>
+      <c r="C282" t="s">
+        <v>5</v>
+      </c>
+      <c r="D282" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283">
+        <v>1</v>
+      </c>
+      <c r="B283">
+        <v>51</v>
+      </c>
+      <c r="C283" t="s">
+        <v>7</v>
+      </c>
+      <c r="D283" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284">
+        <v>1</v>
+      </c>
+      <c r="B284">
+        <v>52</v>
+      </c>
+      <c r="C284" t="s">
+        <v>4</v>
+      </c>
+      <c r="D284">
+        <v>4047662293</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285">
+        <v>1</v>
+      </c>
+      <c r="B285">
+        <v>53</v>
+      </c>
+      <c r="C285" t="s">
+        <v>6</v>
+      </c>
+      <c r="D285" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286">
+        <v>1</v>
+      </c>
+      <c r="B286">
+        <v>54</v>
+      </c>
+      <c r="C286" t="s">
+        <v>5</v>
+      </c>
+      <c r="D286" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287">
+        <v>1</v>
+      </c>
+      <c r="B287">
+        <v>55</v>
+      </c>
+      <c r="C287" t="s">
+        <v>7</v>
+      </c>
+      <c r="D287" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288">
+        <v>1</v>
+      </c>
+      <c r="B288">
+        <v>56</v>
+      </c>
+      <c r="C288" t="s">
+        <v>4</v>
+      </c>
+      <c r="D288" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289">
+        <v>1</v>
+      </c>
+      <c r="B289">
+        <v>57</v>
+      </c>
+      <c r="C289" t="s">
+        <v>6</v>
+      </c>
+      <c r="D289" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290">
+        <v>1</v>
+      </c>
+      <c r="B290">
+        <v>58</v>
+      </c>
+      <c r="C290" t="s">
+        <v>5</v>
+      </c>
+      <c r="D290" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291">
+        <v>1</v>
+      </c>
+      <c r="B291">
+        <v>59</v>
+      </c>
+      <c r="C291" t="s">
+        <v>7</v>
+      </c>
+      <c r="D291" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292">
+        <v>1</v>
+      </c>
+      <c r="B292">
+        <v>60</v>
+      </c>
+      <c r="C292" t="s">
+        <v>4</v>
+      </c>
+      <c r="D292" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293">
+        <v>1</v>
+      </c>
+      <c r="B293">
+        <v>61</v>
+      </c>
+      <c r="C293" t="s">
+        <v>6</v>
+      </c>
+      <c r="D293" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294">
+        <v>1</v>
+      </c>
+      <c r="B294">
+        <v>62</v>
+      </c>
+      <c r="C294" t="s">
+        <v>5</v>
+      </c>
+      <c r="D294" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295">
+        <v>1</v>
+      </c>
+      <c r="B295">
+        <v>63</v>
+      </c>
+      <c r="C295" t="s">
+        <v>7</v>
+      </c>
+      <c r="D295" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296">
+        <v>1</v>
+      </c>
+      <c r="B296">
+        <v>64</v>
+      </c>
+      <c r="C296" t="s">
+        <v>4</v>
+      </c>
+      <c r="D296" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297">
+        <v>1</v>
+      </c>
+      <c r="B297">
+        <v>65</v>
+      </c>
+      <c r="C297" t="s">
+        <v>6</v>
+      </c>
+      <c r="D297" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298">
+        <v>1</v>
+      </c>
+      <c r="B298">
+        <v>66</v>
+      </c>
+      <c r="C298" t="s">
+        <v>5</v>
+      </c>
+      <c r="D298" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299">
+        <v>1</v>
+      </c>
+      <c r="B299">
+        <v>67</v>
+      </c>
+      <c r="C299" t="s">
+        <v>7</v>
+      </c>
+      <c r="D299" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300">
+        <v>1</v>
+      </c>
+      <c r="B300">
+        <v>68</v>
+      </c>
+      <c r="C300" t="s">
+        <v>4</v>
+      </c>
+      <c r="D300" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301">
+        <v>1</v>
+      </c>
+      <c r="B301">
+        <v>69</v>
+      </c>
+      <c r="C301" t="s">
+        <v>6</v>
+      </c>
+      <c r="D301" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302">
+        <v>1</v>
+      </c>
+      <c r="B302">
+        <v>70</v>
+      </c>
+      <c r="C302" t="s">
+        <v>5</v>
+      </c>
+      <c r="D302" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303">
+        <v>1</v>
+      </c>
+      <c r="B303">
+        <v>71</v>
+      </c>
+      <c r="C303" t="s">
+        <v>7</v>
+      </c>
+      <c r="D303">
+        <v>8636753993</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304">
+        <v>1</v>
+      </c>
+      <c r="B304">
+        <v>72</v>
+      </c>
+      <c r="C304" t="s">
+        <v>4</v>
+      </c>
+      <c r="D304" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305">
+        <v>1</v>
+      </c>
+      <c r="B305">
+        <v>73</v>
+      </c>
+      <c r="C305" t="s">
+        <v>6</v>
+      </c>
+      <c r="D305" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306">
+        <v>1</v>
+      </c>
+      <c r="B306">
+        <v>74</v>
+      </c>
+      <c r="C306" t="s">
+        <v>5</v>
+      </c>
+      <c r="D306" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307">
+        <v>1</v>
+      </c>
+      <c r="B307">
+        <v>75</v>
+      </c>
+      <c r="C307" t="s">
+        <v>7</v>
+      </c>
+      <c r="D307">
+        <v>9123840887</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308">
+        <v>1</v>
+      </c>
+      <c r="B308">
+        <v>76</v>
+      </c>
+      <c r="C308" t="s">
+        <v>4</v>
+      </c>
+      <c r="D308" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309">
+        <v>1</v>
+      </c>
+      <c r="B309">
+        <v>77</v>
+      </c>
+      <c r="C309" t="s">
+        <v>6</v>
+      </c>
+      <c r="D309" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310">
+        <v>1</v>
+      </c>
+      <c r="B310">
+        <v>78</v>
+      </c>
+      <c r="C310" t="s">
+        <v>5</v>
+      </c>
+      <c r="D310" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311">
+        <v>1</v>
+      </c>
+      <c r="B311">
+        <v>79</v>
+      </c>
+      <c r="C311" t="s">
+        <v>7</v>
+      </c>
+      <c r="D311" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312">
+        <v>1</v>
+      </c>
+      <c r="B312">
+        <v>80</v>
+      </c>
+      <c r="C312" t="s">
+        <v>4</v>
+      </c>
+      <c r="D312" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313">
+        <v>1</v>
+      </c>
+      <c r="B313">
+        <v>81</v>
+      </c>
+      <c r="C313" t="s">
+        <v>6</v>
+      </c>
+      <c r="D313" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314">
+        <v>1</v>
+      </c>
+      <c r="B314">
+        <v>82</v>
+      </c>
+      <c r="C314" t="s">
+        <v>5</v>
+      </c>
+      <c r="D314" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315">
+        <v>1</v>
+      </c>
+      <c r="B315">
+        <v>83</v>
+      </c>
+      <c r="C315" t="s">
+        <v>7</v>
+      </c>
+      <c r="D315" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316">
+        <v>1</v>
+      </c>
+      <c r="B316">
+        <v>84</v>
+      </c>
+      <c r="C316" t="s">
+        <v>4</v>
+      </c>
+      <c r="D316" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317">
+        <v>1</v>
+      </c>
+      <c r="B317">
+        <v>85</v>
+      </c>
+      <c r="C317" t="s">
+        <v>6</v>
+      </c>
+      <c r="D317" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318">
+        <v>1</v>
+      </c>
+      <c r="B318">
+        <v>86</v>
+      </c>
+      <c r="C318" t="s">
+        <v>5</v>
+      </c>
+      <c r="D318" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319">
+        <v>1</v>
+      </c>
+      <c r="B319">
+        <v>87</v>
+      </c>
+      <c r="C319" t="s">
+        <v>7</v>
+      </c>
+      <c r="D319" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320">
+        <v>1</v>
+      </c>
+      <c r="B320">
+        <v>88</v>
+      </c>
+      <c r="C320" t="s">
+        <v>4</v>
+      </c>
+      <c r="D320" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321">
+        <v>1</v>
+      </c>
+      <c r="B321">
+        <v>89</v>
+      </c>
+      <c r="C321" t="s">
+        <v>6</v>
+      </c>
+      <c r="D321" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322">
+        <v>1</v>
+      </c>
+      <c r="B322">
+        <v>90</v>
+      </c>
+      <c r="C322" t="s">
+        <v>5</v>
+      </c>
+      <c r="D322" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323">
+        <v>1</v>
+      </c>
+      <c r="B323">
+        <v>91</v>
+      </c>
+      <c r="C323" t="s">
+        <v>7</v>
+      </c>
+      <c r="D323" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324">
+        <v>1</v>
+      </c>
+      <c r="B324">
+        <v>92</v>
+      </c>
+      <c r="C324" t="s">
+        <v>4</v>
+      </c>
+      <c r="D324" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325">
+        <v>1</v>
+      </c>
+      <c r="B325">
+        <v>93</v>
+      </c>
+      <c r="C325" t="s">
+        <v>6</v>
+      </c>
+      <c r="D325" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326">
+        <v>1</v>
+      </c>
+      <c r="B326">
+        <v>94</v>
+      </c>
+      <c r="C326" t="s">
+        <v>5</v>
+      </c>
+      <c r="D326" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327">
+        <v>1</v>
+      </c>
+      <c r="B327">
+        <v>95</v>
+      </c>
+      <c r="C327" t="s">
+        <v>7</v>
+      </c>
+      <c r="D327" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328">
+        <v>1</v>
+      </c>
+      <c r="B328">
+        <v>96</v>
+      </c>
+      <c r="C328" t="s">
+        <v>4</v>
+      </c>
+      <c r="D328" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329">
+        <v>1</v>
+      </c>
+      <c r="B329">
+        <v>97</v>
+      </c>
+      <c r="C329" t="s">
+        <v>6</v>
+      </c>
+      <c r="D329" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330">
+        <v>1</v>
+      </c>
+      <c r="B330">
+        <v>98</v>
+      </c>
+      <c r="C330" t="s">
+        <v>5</v>
+      </c>
+      <c r="D330" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331">
+        <v>1</v>
+      </c>
+      <c r="B331">
+        <v>99</v>
+      </c>
+      <c r="C331" t="s">
+        <v>7</v>
+      </c>
+      <c r="D331" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332">
+        <v>1</v>
+      </c>
+      <c r="B332">
+        <v>100</v>
+      </c>
+      <c r="C332" t="s">
+        <v>4</v>
+      </c>
+      <c r="D332" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333">
+        <v>1</v>
+      </c>
+      <c r="B333">
+        <v>101</v>
+      </c>
+      <c r="C333" t="s">
+        <v>6</v>
+      </c>
+      <c r="D333" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334">
+        <v>1</v>
+      </c>
+      <c r="B334">
+        <v>102</v>
+      </c>
+      <c r="C334" t="s">
+        <v>5</v>
+      </c>
+      <c r="D334" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335">
+        <v>1</v>
+      </c>
+      <c r="B335">
+        <v>103</v>
+      </c>
+      <c r="C335" t="s">
+        <v>7</v>
+      </c>
+      <c r="D335" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336">
+        <v>1</v>
+      </c>
+      <c r="B336">
+        <v>104</v>
+      </c>
+      <c r="C336" t="s">
+        <v>4</v>
+      </c>
+      <c r="D336" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337">
+        <v>1</v>
+      </c>
+      <c r="B337">
+        <v>105</v>
+      </c>
+      <c r="C337" t="s">
+        <v>6</v>
+      </c>
+      <c r="D337" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338">
+        <v>1</v>
+      </c>
+      <c r="B338">
+        <v>106</v>
+      </c>
+      <c r="C338" t="s">
+        <v>5</v>
+      </c>
+      <c r="D338" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339">
+        <v>1</v>
+      </c>
+      <c r="B339">
+        <v>107</v>
+      </c>
+      <c r="C339" t="s">
+        <v>7</v>
+      </c>
+      <c r="D339" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340">
+        <v>1</v>
+      </c>
+      <c r="B340">
+        <v>108</v>
+      </c>
+      <c r="C340" t="s">
+        <v>4</v>
+      </c>
+      <c r="D340" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341">
+        <v>1</v>
+      </c>
+      <c r="B341">
+        <v>109</v>
+      </c>
+      <c r="C341" t="s">
+        <v>6</v>
+      </c>
+      <c r="D341" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342">
+        <v>1</v>
+      </c>
+      <c r="B342">
+        <v>110</v>
+      </c>
+      <c r="C342" t="s">
+        <v>5</v>
+      </c>
+      <c r="D342" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343">
+        <v>1</v>
+      </c>
+      <c r="B343">
+        <v>111</v>
+      </c>
+      <c r="C343" t="s">
+        <v>7</v>
+      </c>
+      <c r="D343" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344">
+        <v>1</v>
+      </c>
+      <c r="B344">
+        <v>112</v>
+      </c>
+      <c r="C344" t="s">
+        <v>4</v>
+      </c>
+      <c r="D344" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345">
+        <v>1</v>
+      </c>
+      <c r="B345">
+        <v>113</v>
+      </c>
+      <c r="C345" t="s">
+        <v>6</v>
+      </c>
+      <c r="D345" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346">
+        <v>1</v>
+      </c>
+      <c r="B346">
+        <v>114</v>
+      </c>
+      <c r="C346" t="s">
+        <v>5</v>
+      </c>
+      <c r="D346" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347">
+        <v>1</v>
+      </c>
+      <c r="B347">
+        <v>115</v>
+      </c>
+      <c r="C347" t="s">
+        <v>7</v>
+      </c>
+      <c r="D347" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348">
+        <v>1</v>
+      </c>
+      <c r="B348">
+        <v>116</v>
+      </c>
+      <c r="C348" t="s">
+        <v>4</v>
+      </c>
+      <c r="D348" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349">
+        <v>1</v>
+      </c>
+      <c r="B349">
+        <v>117</v>
+      </c>
+      <c r="C349" t="s">
+        <v>6</v>
+      </c>
+      <c r="D349" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350">
+        <v>1</v>
+      </c>
+      <c r="B350">
+        <v>118</v>
+      </c>
+      <c r="C350" t="s">
+        <v>5</v>
+      </c>
+      <c r="D350" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351">
+        <v>1</v>
+      </c>
+      <c r="B351">
+        <v>119</v>
+      </c>
+      <c r="C351" t="s">
+        <v>7</v>
+      </c>
+      <c r="D351" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352">
+        <v>1</v>
+      </c>
+      <c r="B352">
+        <v>120</v>
+      </c>
+      <c r="C352" t="s">
+        <v>4</v>
+      </c>
+      <c r="D352" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353">
+        <v>1</v>
+      </c>
+      <c r="B353">
+        <v>121</v>
+      </c>
+      <c r="C353" t="s">
+        <v>6</v>
+      </c>
+      <c r="D353" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354">
+        <v>1</v>
+      </c>
+      <c r="B354">
+        <v>122</v>
+      </c>
+      <c r="C354" t="s">
+        <v>5</v>
+      </c>
+      <c r="D354" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355">
+        <v>1</v>
+      </c>
+      <c r="B355">
+        <v>123</v>
+      </c>
+      <c r="C355" t="s">
+        <v>7</v>
+      </c>
+      <c r="D355">
+        <v>2398725938</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356">
+        <v>1</v>
+      </c>
+      <c r="B356">
+        <v>124</v>
+      </c>
+      <c r="C356" t="s">
+        <v>4</v>
+      </c>
+      <c r="D356" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357">
+        <v>1</v>
+      </c>
+      <c r="B357">
+        <v>125</v>
+      </c>
+      <c r="C357" t="s">
+        <v>6</v>
+      </c>
+      <c r="D357" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358">
+        <v>1</v>
+      </c>
+      <c r="B358">
+        <v>126</v>
+      </c>
+      <c r="C358" t="s">
+        <v>5</v>
+      </c>
+      <c r="D358" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359">
+        <v>1</v>
+      </c>
+      <c r="B359">
+        <v>127</v>
+      </c>
+      <c r="C359" t="s">
+        <v>7</v>
+      </c>
+      <c r="D359" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360">
+        <v>1</v>
+      </c>
+      <c r="B360">
+        <v>128</v>
+      </c>
+      <c r="C360" t="s">
+        <v>4</v>
+      </c>
+      <c r="D360" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361">
+        <v>1</v>
+      </c>
+      <c r="B361">
+        <v>129</v>
+      </c>
+      <c r="C361" t="s">
+        <v>6</v>
+      </c>
+      <c r="D361" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362">
+        <v>1</v>
+      </c>
+      <c r="B362">
+        <v>130</v>
+      </c>
+      <c r="C362" t="s">
+        <v>5</v>
+      </c>
+      <c r="D362" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363">
+        <v>1</v>
+      </c>
+      <c r="B363">
+        <v>131</v>
+      </c>
+      <c r="C363" t="s">
+        <v>7</v>
+      </c>
+      <c r="D363" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364">
+        <v>1</v>
+      </c>
+      <c r="B364">
+        <v>132</v>
+      </c>
+      <c r="C364" t="s">
+        <v>4</v>
+      </c>
+      <c r="D364" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365">
+        <v>1</v>
+      </c>
+      <c r="B365">
+        <v>133</v>
+      </c>
+      <c r="C365" t="s">
+        <v>6</v>
+      </c>
+      <c r="D365" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366">
+        <v>1</v>
+      </c>
+      <c r="B366">
+        <v>134</v>
+      </c>
+      <c r="C366" t="s">
+        <v>5</v>
+      </c>
+      <c r="D366" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367">
+        <v>1</v>
+      </c>
+      <c r="B367">
+        <v>135</v>
+      </c>
+      <c r="C367" t="s">
+        <v>7</v>
+      </c>
+      <c r="D367" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368">
+        <v>1</v>
+      </c>
+      <c r="B368">
+        <v>136</v>
+      </c>
+      <c r="C368" t="s">
+        <v>4</v>
+      </c>
+      <c r="D368" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369">
+        <v>1</v>
+      </c>
+      <c r="B369">
+        <v>137</v>
+      </c>
+      <c r="C369" t="s">
+        <v>6</v>
+      </c>
+      <c r="D369" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370">
+        <v>1</v>
+      </c>
+      <c r="B370">
+        <v>138</v>
+      </c>
+      <c r="C370" t="s">
+        <v>5</v>
+      </c>
+      <c r="D370" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371">
+        <v>1</v>
+      </c>
+      <c r="B371">
+        <v>139</v>
+      </c>
+      <c r="C371" t="s">
+        <v>7</v>
+      </c>
+      <c r="D371" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372">
+        <v>1</v>
+      </c>
+      <c r="B372">
+        <v>140</v>
+      </c>
+      <c r="C372" t="s">
+        <v>4</v>
+      </c>
+      <c r="D372" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373">
+        <v>1</v>
+      </c>
+      <c r="B373">
+        <v>141</v>
+      </c>
+      <c r="C373" t="s">
+        <v>6</v>
+      </c>
+      <c r="D373" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374">
+        <v>1</v>
+      </c>
+      <c r="B374">
+        <v>142</v>
+      </c>
+      <c r="C374" t="s">
+        <v>5</v>
+      </c>
+      <c r="D374" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375">
+        <v>1</v>
+      </c>
+      <c r="B375">
+        <v>143</v>
+      </c>
+      <c r="C375" t="s">
+        <v>7</v>
+      </c>
+      <c r="D375" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376">
+        <v>1</v>
+      </c>
+      <c r="B376">
+        <v>144</v>
+      </c>
+      <c r="C376" t="s">
+        <v>4</v>
+      </c>
+      <c r="D376" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377">
+        <v>1</v>
+      </c>
+      <c r="B377">
+        <v>145</v>
+      </c>
+      <c r="C377" t="s">
+        <v>6</v>
+      </c>
+      <c r="D377" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378">
+        <v>1</v>
+      </c>
+      <c r="B378">
+        <v>146</v>
+      </c>
+      <c r="C378" t="s">
+        <v>5</v>
+      </c>
+      <c r="D378" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379">
+        <v>1</v>
+      </c>
+      <c r="B379">
+        <v>147</v>
+      </c>
+      <c r="C379" t="s">
+        <v>7</v>
+      </c>
+      <c r="D379" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380">
+        <v>1</v>
+      </c>
+      <c r="B380">
+        <v>148</v>
+      </c>
+      <c r="C380" t="s">
+        <v>4</v>
+      </c>
+      <c r="D380" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381">
+        <v>1</v>
+      </c>
+      <c r="B381">
+        <v>149</v>
+      </c>
+      <c r="C381" t="s">
+        <v>6</v>
+      </c>
+      <c r="D381" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382">
+        <v>1</v>
+      </c>
+      <c r="B382">
+        <v>150</v>
+      </c>
+      <c r="C382" t="s">
+        <v>5</v>
+      </c>
+      <c r="D382" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383">
+        <v>1</v>
+      </c>
+      <c r="B383">
+        <v>151</v>
+      </c>
+      <c r="C383" t="s">
+        <v>7</v>
+      </c>
+      <c r="D383" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384">
+        <v>1</v>
+      </c>
+      <c r="B384">
+        <v>152</v>
+      </c>
+      <c r="C384" t="s">
+        <v>4</v>
+      </c>
+      <c r="D384" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385">
+        <v>1</v>
+      </c>
+      <c r="B385">
+        <v>153</v>
+      </c>
+      <c r="C385" t="s">
+        <v>6</v>
+      </c>
+      <c r="D385" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386">
+        <v>1</v>
+      </c>
+      <c r="B386">
+        <v>154</v>
+      </c>
+      <c r="C386" t="s">
+        <v>5</v>
+      </c>
+      <c r="D386" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387">
+        <v>1</v>
+      </c>
+      <c r="B387">
+        <v>155</v>
+      </c>
+      <c r="C387" t="s">
+        <v>7</v>
+      </c>
+      <c r="D387" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388">
+        <v>1</v>
+      </c>
+      <c r="B388">
+        <v>156</v>
+      </c>
+      <c r="C388" t="s">
+        <v>4</v>
+      </c>
+      <c r="D388" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389">
+        <v>1</v>
+      </c>
+      <c r="B389">
+        <v>157</v>
+      </c>
+      <c r="C389" t="s">
+        <v>6</v>
+      </c>
+      <c r="D389" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390">
+        <v>1</v>
+      </c>
+      <c r="B390">
+        <v>158</v>
+      </c>
+      <c r="C390" t="s">
+        <v>5</v>
+      </c>
+      <c r="D390" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391">
+        <v>1</v>
+      </c>
+      <c r="B391">
+        <v>159</v>
+      </c>
+      <c r="C391" t="s">
+        <v>7</v>
+      </c>
+      <c r="D391" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392">
+        <v>1</v>
+      </c>
+      <c r="B392">
+        <v>160</v>
+      </c>
+      <c r="C392" t="s">
+        <v>4</v>
+      </c>
+      <c r="D392" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393">
+        <v>1</v>
+      </c>
+      <c r="B393">
+        <v>161</v>
+      </c>
+      <c r="C393" t="s">
+        <v>6</v>
+      </c>
+      <c r="D393" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394">
+        <v>1</v>
+      </c>
+      <c r="B394">
+        <v>162</v>
+      </c>
+      <c r="C394" t="s">
+        <v>5</v>
+      </c>
+      <c r="D394" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395">
+        <v>1</v>
+      </c>
+      <c r="B395">
+        <v>163</v>
+      </c>
+      <c r="C395" t="s">
+        <v>7</v>
+      </c>
+      <c r="D395" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396">
+        <v>1</v>
+      </c>
+      <c r="B396">
+        <v>164</v>
+      </c>
+      <c r="C396" t="s">
+        <v>4</v>
+      </c>
+      <c r="D396" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397">
+        <v>1</v>
+      </c>
+      <c r="B397">
+        <v>165</v>
+      </c>
+      <c r="C397" t="s">
+        <v>6</v>
+      </c>
+      <c r="D397" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398">
+        <v>1</v>
+      </c>
+      <c r="B398">
+        <v>166</v>
+      </c>
+      <c r="C398" t="s">
+        <v>5</v>
+      </c>
+      <c r="D398" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399">
+        <v>1</v>
+      </c>
+      <c r="B399">
+        <v>167</v>
+      </c>
+      <c r="C399" t="s">
+        <v>7</v>
+      </c>
+      <c r="D399" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400">
+        <v>1</v>
+      </c>
+      <c r="B400">
+        <v>168</v>
+      </c>
+      <c r="C400" t="s">
+        <v>4</v>
+      </c>
+      <c r="D400" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401">
+        <v>1</v>
+      </c>
+      <c r="B401">
+        <v>169</v>
+      </c>
+      <c r="C401" t="s">
+        <v>6</v>
+      </c>
+      <c r="D401">
+        <v>6783661197</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402">
+        <v>1</v>
+      </c>
+      <c r="B402">
+        <v>170</v>
+      </c>
+      <c r="C402" t="s">
+        <v>5</v>
+      </c>
+      <c r="D402" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403">
+        <v>1</v>
+      </c>
+      <c r="B403">
+        <v>171</v>
+      </c>
+      <c r="C403" t="s">
+        <v>7</v>
+      </c>
+      <c r="D403" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404">
+        <v>1</v>
+      </c>
+      <c r="B404">
+        <v>172</v>
+      </c>
+      <c r="C404" t="s">
+        <v>4</v>
+      </c>
+      <c r="D404" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405">
+        <v>1</v>
+      </c>
+      <c r="B405">
+        <v>173</v>
+      </c>
+      <c r="C405" t="s">
+        <v>6</v>
+      </c>
+      <c r="D405" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406">
+        <v>1</v>
+      </c>
+      <c r="B406">
+        <v>174</v>
+      </c>
+      <c r="C406" t="s">
+        <v>5</v>
+      </c>
+      <c r="D406" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407">
+        <v>1</v>
+      </c>
+      <c r="B407">
+        <v>175</v>
+      </c>
+      <c r="C407" t="s">
+        <v>7</v>
+      </c>
+      <c r="D407" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408">
+        <v>1</v>
+      </c>
+      <c r="B408">
+        <v>176</v>
+      </c>
+      <c r="C408" t="s">
+        <v>4</v>
+      </c>
+      <c r="D408" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409">
+        <v>1</v>
+      </c>
+      <c r="B409">
+        <v>177</v>
+      </c>
+      <c r="C409" t="s">
+        <v>6</v>
+      </c>
+      <c r="D409" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410">
+        <v>1</v>
+      </c>
+      <c r="B410">
+        <v>178</v>
+      </c>
+      <c r="C410" t="s">
+        <v>5</v>
+      </c>
+      <c r="D410" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411">
+        <v>1</v>
+      </c>
+      <c r="B411">
+        <v>179</v>
+      </c>
+      <c r="C411" t="s">
+        <v>7</v>
+      </c>
+      <c r="D411" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412">
+        <v>1</v>
+      </c>
+      <c r="B412">
+        <v>180</v>
+      </c>
+      <c r="C412" t="s">
+        <v>4</v>
+      </c>
+      <c r="D412" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413">
+        <v>1</v>
+      </c>
+      <c r="B413">
+        <v>181</v>
+      </c>
+      <c r="C413" t="s">
+        <v>6</v>
+      </c>
+      <c r="D413" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414">
+        <v>1</v>
+      </c>
+      <c r="B414">
+        <v>182</v>
+      </c>
+      <c r="C414" t="s">
+        <v>5</v>
+      </c>
+      <c r="D414" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415">
+        <v>1</v>
+      </c>
+      <c r="B415">
+        <v>183</v>
+      </c>
+      <c r="C415" t="s">
+        <v>7</v>
+      </c>
+      <c r="D415" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416">
+        <v>1</v>
+      </c>
+      <c r="B416">
+        <v>184</v>
+      </c>
+      <c r="C416" t="s">
+        <v>4</v>
+      </c>
+      <c r="D416" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417">
+        <v>1</v>
+      </c>
+      <c r="B417">
+        <v>185</v>
+      </c>
+      <c r="C417" t="s">
+        <v>6</v>
+      </c>
+      <c r="D417" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418">
+        <v>1</v>
+      </c>
+      <c r="B418">
+        <v>186</v>
+      </c>
+      <c r="C418" t="s">
+        <v>5</v>
+      </c>
+      <c r="D418" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419">
+        <v>1</v>
+      </c>
+      <c r="B419">
+        <v>187</v>
+      </c>
+      <c r="C419" t="s">
+        <v>7</v>
+      </c>
+      <c r="D419" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420">
+        <v>1</v>
+      </c>
+      <c r="B420">
+        <v>188</v>
+      </c>
+      <c r="C420" t="s">
+        <v>4</v>
+      </c>
+      <c r="D420" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421">
+        <v>1</v>
+      </c>
+      <c r="B421">
+        <v>189</v>
+      </c>
+      <c r="C421" t="s">
+        <v>6</v>
+      </c>
+      <c r="D421" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422">
+        <v>1</v>
+      </c>
+      <c r="B422">
+        <v>190</v>
+      </c>
+      <c r="C422" t="s">
+        <v>5</v>
+      </c>
+      <c r="D422" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423">
+        <v>1</v>
+      </c>
+      <c r="B423">
+        <v>191</v>
+      </c>
+      <c r="C423" t="s">
+        <v>7</v>
+      </c>
+      <c r="D423" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424">
+        <v>1</v>
+      </c>
+      <c r="B424">
+        <v>192</v>
+      </c>
+      <c r="C424" t="s">
+        <v>4</v>
+      </c>
+      <c r="D424" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425">
+        <v>1</v>
+      </c>
+      <c r="B425">
+        <v>193</v>
+      </c>
+      <c r="C425" t="s">
+        <v>6</v>
+      </c>
+      <c r="D425" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426">
+        <v>1</v>
+      </c>
+      <c r="B426">
+        <v>194</v>
+      </c>
+      <c r="C426" t="s">
+        <v>5</v>
+      </c>
+      <c r="D426" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427">
+        <v>1</v>
+      </c>
+      <c r="B427">
+        <v>195</v>
+      </c>
+      <c r="C427" t="s">
+        <v>7</v>
+      </c>
+      <c r="D427" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428">
+        <v>1</v>
+      </c>
+      <c r="B428">
+        <v>196</v>
+      </c>
+      <c r="C428" t="s">
+        <v>4</v>
+      </c>
+      <c r="D428" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429">
+        <v>1</v>
+      </c>
+      <c r="B429">
+        <v>197</v>
+      </c>
+      <c r="C429" t="s">
+        <v>6</v>
+      </c>
+      <c r="D429" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430">
+        <v>1</v>
+      </c>
+      <c r="B430">
+        <v>198</v>
+      </c>
+      <c r="C430" t="s">
+        <v>5</v>
+      </c>
+      <c r="D430" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431">
+        <v>1</v>
+      </c>
+      <c r="B431">
+        <v>199</v>
+      </c>
+      <c r="C431" t="s">
+        <v>7</v>
+      </c>
+      <c r="D431" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432">
+        <v>1</v>
+      </c>
+      <c r="B432">
+        <v>200</v>
+      </c>
+      <c r="C432" t="s">
+        <v>4</v>
+      </c>
+      <c r="D432" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433">
+        <v>1</v>
+      </c>
+      <c r="B433">
+        <v>201</v>
+      </c>
+      <c r="C433" t="s">
+        <v>6</v>
+      </c>
+      <c r="D433" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434">
+        <v>1</v>
+      </c>
+      <c r="B434">
+        <v>202</v>
+      </c>
+      <c r="C434" t="s">
+        <v>5</v>
+      </c>
+      <c r="D434" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435">
+        <v>1</v>
+      </c>
+      <c r="B435">
+        <v>203</v>
+      </c>
+      <c r="C435" t="s">
+        <v>7</v>
+      </c>
+      <c r="D435" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436">
+        <v>1</v>
+      </c>
+      <c r="B436">
+        <v>204</v>
+      </c>
+      <c r="C436" t="s">
+        <v>4</v>
+      </c>
+      <c r="D436">
+        <v>5122617287</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437">
+        <v>1</v>
+      </c>
+      <c r="B437">
+        <v>205</v>
+      </c>
+      <c r="C437" t="s">
+        <v>6</v>
+      </c>
+      <c r="D437" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438">
+        <v>1</v>
+      </c>
+      <c r="B438">
+        <v>206</v>
+      </c>
+      <c r="C438" t="s">
+        <v>5</v>
+      </c>
+      <c r="D438" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439">
+        <v>1</v>
+      </c>
+      <c r="B439">
+        <v>207</v>
+      </c>
+      <c r="C439" t="s">
+        <v>7</v>
+      </c>
+      <c r="D439" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440">
+        <v>1</v>
+      </c>
+      <c r="B440">
+        <v>208</v>
+      </c>
+      <c r="C440" t="s">
+        <v>4</v>
+      </c>
+      <c r="D440" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441">
+        <v>1</v>
+      </c>
+      <c r="B441">
+        <v>209</v>
+      </c>
+      <c r="C441" t="s">
+        <v>6</v>
+      </c>
+      <c r="D441" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442">
+        <v>1</v>
+      </c>
+      <c r="B442">
+        <v>210</v>
+      </c>
+      <c r="C442" t="s">
+        <v>5</v>
+      </c>
+      <c r="D442" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443">
+        <v>1</v>
+      </c>
+      <c r="B443">
+        <v>211</v>
+      </c>
+      <c r="C443" t="s">
+        <v>7</v>
+      </c>
+      <c r="D443" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444">
+        <v>1</v>
+      </c>
+      <c r="B444">
+        <v>212</v>
+      </c>
+      <c r="C444" t="s">
+        <v>4</v>
+      </c>
+      <c r="D444" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445">
+        <v>1</v>
+      </c>
+      <c r="B445">
+        <v>213</v>
+      </c>
+      <c r="C445" t="s">
+        <v>6</v>
+      </c>
+      <c r="D445" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446">
+        <v>1</v>
+      </c>
+      <c r="B446">
+        <v>214</v>
+      </c>
+      <c r="C446" t="s">
+        <v>5</v>
+      </c>
+      <c r="D446" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447">
+        <v>1</v>
+      </c>
+      <c r="B447">
+        <v>215</v>
+      </c>
+      <c r="C447" t="s">
+        <v>7</v>
+      </c>
+      <c r="D447" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448">
+        <v>1</v>
+      </c>
+      <c r="B448">
+        <v>216</v>
+      </c>
+      <c r="C448" t="s">
+        <v>4</v>
+      </c>
+      <c r="D448" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449">
+        <v>1</v>
+      </c>
+      <c r="B449">
+        <v>217</v>
+      </c>
+      <c r="C449" t="s">
+        <v>6</v>
+      </c>
+      <c r="D449" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450">
+        <v>1</v>
+      </c>
+      <c r="B450">
+        <v>218</v>
+      </c>
+      <c r="C450" t="s">
+        <v>5</v>
+      </c>
+      <c r="D450" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451">
+        <v>1</v>
+      </c>
+      <c r="B451">
+        <v>219</v>
+      </c>
+      <c r="C451" t="s">
+        <v>7</v>
+      </c>
+      <c r="D451" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452">
+        <v>1</v>
+      </c>
+      <c r="B452">
+        <v>220</v>
+      </c>
+      <c r="C452" t="s">
+        <v>4</v>
+      </c>
+      <c r="D452" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453">
+        <v>1</v>
+      </c>
+      <c r="B453">
+        <v>221</v>
+      </c>
+      <c r="C453" t="s">
+        <v>6</v>
+      </c>
+      <c r="D453" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454">
+        <v>1</v>
+      </c>
+      <c r="B454">
+        <v>222</v>
+      </c>
+      <c r="C454" t="s">
+        <v>5</v>
+      </c>
+      <c r="D454" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455">
+        <v>1</v>
+      </c>
+      <c r="B455">
+        <v>223</v>
+      </c>
+      <c r="C455" t="s">
+        <v>7</v>
+      </c>
+      <c r="D455" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456">
+        <v>1</v>
+      </c>
+      <c r="B456">
+        <v>224</v>
+      </c>
+      <c r="C456" t="s">
+        <v>4</v>
+      </c>
+      <c r="D456" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457">
+        <v>1</v>
+      </c>
+      <c r="B457">
+        <v>225</v>
+      </c>
+      <c r="C457" t="s">
+        <v>6</v>
+      </c>
+      <c r="D457" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458">
+        <v>1</v>
+      </c>
+      <c r="B458">
+        <v>226</v>
+      </c>
+      <c r="C458" t="s">
+        <v>5</v>
+      </c>
+      <c r="D458" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459">
+        <v>1</v>
+      </c>
+      <c r="B459">
+        <v>227</v>
+      </c>
+      <c r="C459" t="s">
+        <v>7</v>
+      </c>
+      <c r="D459" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460">
+        <v>1</v>
+      </c>
+      <c r="B460">
+        <v>228</v>
+      </c>
+      <c r="C460" t="s">
+        <v>4</v>
+      </c>
+      <c r="D460" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
